--- a/src/test/java/remoteService/member/registerServiceTestData.xlsx
+++ b/src/test/java/remoteService/member/registerServiceTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinwinarko/eclipse-workspace/DanaPulsaAutomationTest/src/test/java/remoteService/member/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinwinarko/eclipse-workspace/DanaPulsaAutomationTest/src/test/java/testCases/register/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FE5249-7191-2F4B-BE8B-67E07BB2B179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8455DD3B-C686-1B43-B8C7-3CAADDC6344F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t>email</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>08216488</t>
+  </si>
+  <si>
+    <t>abcdefghij</t>
   </si>
   <si>
     <t>abcdef</t>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,13 +495,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>123456</v>
@@ -506,13 +509,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>123456</v>
@@ -523,10 +526,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>123456</v>
@@ -534,10 +537,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -548,13 +551,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
         <v>123456</v>
@@ -562,13 +565,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>123456</v>
@@ -576,13 +579,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>123456</v>
@@ -590,37 +593,39 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1">
         <v>123456</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
         <v>123456</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1">
         <v>123456</v>
@@ -628,109 +633,121 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D12" s="1">
         <v>123456</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1">
-        <v>-123456</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1">
-        <v>12345</v>
+        <v>-123456</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1">
-        <v>1234567</v>
+        <v>12345</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1234567</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1">
         <v>123456</v>
       </c>
     </row>
